--- a/data/trans_bre/P20B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-18.06861804765366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13.82417351419557</v>
+        <v>13.82417351419558</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.8902811890840715</v>
@@ -662,18 +662,18 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-62.00872374440629</v>
+        <v>-61.33042265214291</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-48.79126698384451</v>
+        <v>-46.15218881265225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-52.50004503214836</v>
+        <v>-55.63663731075803</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.9244259592204008</v>
+        <v>-0.9300397209971931</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
@@ -686,18 +686,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.997345026475257</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.616623232512976</v>
+        <v>5.026978172308724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.956008203581347</v>
+        <v>2.944220816038615</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.7750626402826564</v>
+        <v>0.8017963245548091</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -735,7 +735,7 @@
         <v>-0.4309157567727597</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.7721021742648786</v>
+        <v>-0.7721021742648785</v>
       </c>
     </row>
     <row r="8">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-38.03573142444716</v>
+        <v>-38.85240884689264</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-32.22723727067941</v>
+        <v>-31.98738665369495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-37.55600958249781</v>
+        <v>-33.97109218828582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-58.30667131720488</v>
+        <v>-59.80373062680741</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9147438131811826</v>
+        <v>-0.8986895444819774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9137626786374391</v>
+        <v>-0.9214303666053113</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -774,22 +774,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.979472656500984</v>
+        <v>-1.239143909501612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.6022006282716239</v>
+        <v>-0.4669035296982049</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.66855985606254</v>
+        <v>7.954441208486918</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.237204633565365</v>
+        <v>4.929156368792857</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08246350421382784</v>
+        <v>0.1586300309697775</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2501939689715884</v>
+        <v>0.1806959477238057</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -815,7 +815,7 @@
         <v>-27.96187151213427</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-3.359795645919733</v>
+        <v>-3.359795645919736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.515150586564056</v>
@@ -827,7 +827,7 @@
         <v>-0.6437732570712171</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1351356759144275</v>
+        <v>-0.1351356759144276</v>
       </c>
     </row>
     <row r="11">
@@ -838,28 +838,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-46.66904262476884</v>
+        <v>-43.66291927297768</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-24.14536174020328</v>
+        <v>-19.45959590993093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-52.01182761213585</v>
+        <v>-50.93249820718919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-30.13782955032768</v>
+        <v>-27.88047235291802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.841263657061046</v>
+        <v>-0.8119415200758915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5468812475861685</v>
+        <v>-0.4486747553667713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8699905534969137</v>
+        <v>-0.8579905417608745</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7132152323282682</v>
+        <v>-0.6883717641839994</v>
       </c>
     </row>
     <row r="12">
@@ -870,28 +870,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.968195616380501</v>
+        <v>5.224959184896692</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.64899411841952</v>
+        <v>22.69634229858976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.994889431948772</v>
+        <v>-3.7058830199511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.53096445324596</v>
+        <v>15.8940189680294</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2829637610287001</v>
+        <v>0.3638952986970842</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8374049039082183</v>
+        <v>1.244137442241882</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1342781157614431</v>
+        <v>-0.06001115760600881</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.596463925310899</v>
+        <v>1.763516847139344</v>
       </c>
     </row>
     <row r="13">
@@ -915,7 +915,7 @@
         <v>2.571615421554974</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.839183047966198</v>
+        <v>2.839183047966187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.237591106444559</v>
@@ -927,7 +927,7 @@
         <v>0.059082553366764</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06825938264801991</v>
+        <v>0.06825938264801965</v>
       </c>
     </row>
     <row r="14">
@@ -938,28 +938,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.925233468765064</v>
+        <v>-4.86691992068593</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.36018576464065</v>
+        <v>-15.4896861157368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-23.17167292270364</v>
+        <v>-26.13166551237176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-17.82867460632976</v>
+        <v>-18.44719873210974</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.172389730263993</v>
+        <v>-0.2643771980058995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2437332374828422</v>
+        <v>-0.2855091447608192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4225580846141115</v>
+        <v>-0.4477815177723059</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3462376097443818</v>
+        <v>-0.3428808887947837</v>
       </c>
     </row>
     <row r="15">
@@ -970,28 +970,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>44.15917169385198</v>
+        <v>44.02234757146737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>33.1774952338811</v>
+        <v>31.94013338832305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32.47222342300158</v>
+        <v>32.06908405130962</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24.58988052879859</v>
+        <v>23.88453029589316</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8.362136033647957</v>
+        <v>8.116135483942053</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.273098944993758</v>
+        <v>1.211212461711136</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.292088501019268</v>
+        <v>1.213388428735626</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.854187653605234</v>
+        <v>0.8785801706108896</v>
       </c>
     </row>
     <row r="16">
@@ -1015,7 +1015,7 @@
         <v>0.3251197267283512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.196187123589811</v>
+        <v>-3.196187123589789</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05599983667802536</v>
@@ -1027,7 +1027,7 @@
         <v>0.006745189790998625</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.08952149977176234</v>
+        <v>-0.08952149977176174</v>
       </c>
     </row>
     <row r="17">
@@ -1038,28 +1038,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-29.64241176034211</v>
+        <v>-27.31846446899076</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.68625573492203</v>
+        <v>-18.82528342554707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-27.69868815142177</v>
+        <v>-25.56055929751763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-22.02884630948223</v>
+        <v>-22.74474486079657</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4558303587263538</v>
+        <v>-0.4428777162341575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4656809292024886</v>
+        <v>-0.4053511131652593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4747196880788297</v>
+        <v>-0.433745207030614</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5060040276027341</v>
+        <v>-0.5052133141117062</v>
       </c>
     </row>
     <row r="18">
@@ -1070,28 +1070,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>31.28693385732434</v>
+        <v>32.39350738148069</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>31.77765011153081</v>
+        <v>31.27064051376921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28.99759439795885</v>
+        <v>30.75444433618232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.32578416137723</v>
+        <v>14.63839502488805</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.120049531600671</v>
+        <v>1.236230665283395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.571891410738258</v>
+        <v>1.654524409462481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8597797209124998</v>
+        <v>0.934972558573826</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6533346323382089</v>
+        <v>0.5670876715766908</v>
       </c>
     </row>
     <row r="19">
@@ -1115,7 +1115,7 @@
         <v>21.26624181957825</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-18.76304425531928</v>
+        <v>-18.76304425531929</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5481007123557649</v>
@@ -1127,7 +1127,7 @@
         <v>0.891377756327968</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4667602500069745</v>
+        <v>-0.4667602500069747</v>
       </c>
     </row>
     <row r="20">
@@ -1138,28 +1138,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-16.13628097312107</v>
+        <v>-11.68309766110699</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-26.84114412708409</v>
+        <v>-27.00693981307426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.184421411867499</v>
+        <v>-3.210207136446635</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-35.35501204464986</v>
+        <v>-34.703729886906</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4549394828719212</v>
+        <v>-0.3938278372658877</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5813741707825184</v>
+        <v>-0.5645499451238135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1352696882633941</v>
+        <v>-0.1466659589265622</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7531702076415483</v>
+        <v>-0.7526856070660747</v>
       </c>
     </row>
     <row r="21">
@@ -1170,28 +1170,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>32.43389782425885</v>
+        <v>34.72843052175629</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.87673861562823</v>
+        <v>22.27560971479049</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>43.38821430899683</v>
+        <v>44.53660652666557</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.3560397084572263</v>
+        <v>-0.6008133580072769</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.466741041852578</v>
+        <v>4.142039469680096</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.253607412176718</v>
+        <v>1.255289634979653</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.14876992761322</v>
+        <v>3.102720376466164</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.588985890322444e-05</v>
+        <v>-0.01977865571329558</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1215,7 @@
         <v>2.00188324206356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.408461982451359</v>
+        <v>5.408461982451371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2297738585673736</v>
@@ -1227,7 +1227,7 @@
         <v>0.08050999713576698</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2675748230663072</v>
+        <v>0.2675748230663079</v>
       </c>
     </row>
     <row r="23">
@@ -1238,28 +1238,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.76908578127358</v>
+        <v>-17.79221727598554</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.99755376580019</v>
+        <v>-23.26003654337827</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-23.45484009042524</v>
+        <v>-22.48805056972102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.97316377852568</v>
+        <v>-9.179685833391215</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7469917742555359</v>
+        <v>-0.7523524442292232</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.76170549442778</v>
+        <v>-0.794266149258529</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6350396334471271</v>
+        <v>-0.6410987232812899</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3999442759877858</v>
+        <v>-0.3440441229811596</v>
       </c>
     </row>
     <row r="24">
@@ -1270,26 +1270,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>22.41801519911686</v>
+        <v>24.35804210464388</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.36160362313154</v>
+        <v>14.64399910319891</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25.12603042222696</v>
+        <v>26.32454645141186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.0414203829454</v>
+        <v>20.6298111170535</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>2.388275350210153</v>
+        <v>3.23180594867244</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.373570468934917</v>
+        <v>2.348824409803289</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.613867492444289</v>
+        <v>2.01441791378548</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>-9.341899917322493</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-9.903336207417951</v>
+        <v>-9.903336207417949</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2305039587340064</v>
@@ -1325,7 +1325,7 @@
         <v>-0.2772256687575638</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2979309431677498</v>
+        <v>-0.2979309431677497</v>
       </c>
     </row>
     <row r="26">
@@ -1336,28 +1336,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-14.10563370060653</v>
+        <v>-14.98989302698247</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-13.16720531295722</v>
+        <v>-13.79299014285175</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-18.46187650657059</v>
+        <v>-18.9195461323189</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-18.1637272824058</v>
+        <v>-18.16578293780952</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.45185792190783</v>
+        <v>-0.4764757488269451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3656304029278389</v>
+        <v>-0.3923937067235273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.466230473630996</v>
+        <v>-0.4774547229531264</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4789319161994582</v>
+        <v>-0.4745813054271327</v>
       </c>
     </row>
     <row r="27">
@@ -1368,28 +1368,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.870078310529214</v>
+        <v>2.429504340701693</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.880532189973595</v>
+        <v>2.870509142432666</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1692074933276928</v>
+        <v>-0.04823182913264846</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-1.523616532171527</v>
+        <v>-1.647884488402699</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1295097181006492</v>
+        <v>0.1282796839329437</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1214771994447532</v>
+        <v>0.1220810242970052</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.004880802274638946</v>
+        <v>0.003192302351711744</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.05338467538386377</v>
+        <v>-0.05995620141591611</v>
       </c>
     </row>
     <row r="28">
